--- a/results/linear_unit_trends.xlsx
+++ b/results/linear_unit_trends.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F244"/>
+  <dimension ref="A1:F255"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -400,7 +400,7 @@
         <v>-0.00168719743599652</v>
       </c>
       <c r="D2">
-        <v>2.642761631673293e-08</v>
+        <v>2.642761631673293E-08</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -532,7 +532,7 @@
         <v>-0.0007988746307052549</v>
       </c>
       <c r="D8">
-        <v>4.71967211002975e-06</v>
+        <v>4.71967211002975E-06</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -573,7 +573,7 @@
         <v>-0.001110646280168527</v>
       </c>
       <c r="C10">
-        <v>-1.667818439109344e-05</v>
+        <v>-1.667818439109344E-05</v>
       </c>
       <c r="D10">
         <v>0.04377958634434932</v>
@@ -598,7 +598,7 @@
         <v>0.002597715889687755</v>
       </c>
       <c r="D11">
-        <v>7.923495665692426e-08</v>
+        <v>7.923495665692426E-08</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -787,7 +787,7 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>-1.783989456330135e-05</v>
+        <v>-1.783989456330135E-05</v>
       </c>
       <c r="B20">
         <v>-0.0009894961041495311</v>
@@ -815,7 +815,7 @@
         <v>-0.001520495833443258</v>
       </c>
       <c r="C21">
-        <v>9.53356774299665e-06</v>
+        <v>9.53356774299665E-06</v>
       </c>
       <c r="D21">
         <v>0.05259033866787479</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="23">
       <c r="A23">
-        <v>2.074908514809708e-05</v>
+        <v>2.074908514809708E-05</v>
       </c>
       <c r="B23">
         <v>-0.0006938726445546386</v>
@@ -963,7 +963,7 @@
     </row>
     <row r="28">
       <c r="A28">
-        <v>1.718461520925792e-05</v>
+        <v>1.718461520925792E-05</v>
       </c>
       <c r="B28">
         <v>-0.0009188988865596387</v>
@@ -1101,7 +1101,7 @@
         <v>-0.00127556709089759</v>
       </c>
       <c r="C34">
-        <v>1.512513952785883e-05</v>
+        <v>1.512513952785883E-05</v>
       </c>
       <c r="D34">
         <v>0.05477421832458605</v>
@@ -1139,7 +1139,7 @@
     </row>
     <row r="36">
       <c r="A36">
-        <v>9.638847757111019e-05</v>
+        <v>9.638847757111019E-05</v>
       </c>
       <c r="B36">
         <v>-0.000468533136603896</v>
@@ -1214,7 +1214,7 @@
         <v>0.002767374060652712</v>
       </c>
       <c r="D39">
-        <v>1.386545206000901e-05</v>
+        <v>1.386545206000901E-05</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1258,7 +1258,7 @@
         <v>-0.001221373697820821</v>
       </c>
       <c r="D41">
-        <v>1.212168147231239e-07</v>
+        <v>1.212168147231239E-07</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1280,7 +1280,7 @@
         <v>-0.001656548482452935</v>
       </c>
       <c r="D42">
-        <v>4.111460386009043e-11</v>
+        <v>4.111460386009043E-11</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1302,7 +1302,7 @@
         <v>-0.001723990812420209</v>
       </c>
       <c r="D43">
-        <v>2.742937083448166e-11</v>
+        <v>2.742937083448166E-11</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1324,7 +1324,7 @@
         <v>-0.0008695509316596717</v>
       </c>
       <c r="D44">
-        <v>7.688454880260134e-09</v>
+        <v>7.688454880260134E-09</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -1368,7 +1368,7 @@
         <v>-0.001727761723772915</v>
       </c>
       <c r="D46">
-        <v>1.045856267890855e-11</v>
+        <v>1.045856267890855E-11</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         <v>-0.002109394124140246</v>
       </c>
       <c r="D47">
-        <v>7.256300559526325e-12</v>
+        <v>7.256300559526325E-12</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1434,7 +1434,7 @@
         <v>-0.002518019396819397</v>
       </c>
       <c r="D49">
-        <v>8.453152055640504e-06</v>
+        <v>8.453152055640504E-06</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1456,7 +1456,7 @@
         <v>-0.002348147872786676</v>
       </c>
       <c r="D50">
-        <v>2.744699844239816e-06</v>
+        <v>2.744699844239816E-06</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1513,7 +1513,7 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>-2.214185652861848e-05</v>
+        <v>-2.214185652861848E-05</v>
       </c>
       <c r="B53">
         <v>-0.001698280433391207</v>
@@ -1557,7 +1557,7 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>-3.309719392631333e-05</v>
+        <v>-3.309719392631333E-05</v>
       </c>
       <c r="B55">
         <v>-0.0007889688396556021</v>
@@ -1588,7 +1588,7 @@
         <v>-0.001491279241206004</v>
       </c>
       <c r="D56">
-        <v>2.965107159826375e-07</v>
+        <v>2.965107159826375E-07</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1676,7 +1676,7 @@
         <v>-0.00655909172714066</v>
       </c>
       <c r="D60">
-        <v>2.211308335223633e-12</v>
+        <v>2.211308335223633E-12</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1808,7 +1808,7 @@
         <v>-0.004477217256886039</v>
       </c>
       <c r="D66">
-        <v>7.957235876616484e-07</v>
+        <v>7.957235876616484E-07</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1830,7 +1830,7 @@
         <v>-0.00224462682241056</v>
       </c>
       <c r="D67">
-        <v>1.029291307941305e-05</v>
+        <v>1.029291307941305E-05</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1849,7 +1849,7 @@
         <v>-0.002384314774465118</v>
       </c>
       <c r="C68">
-        <v>8.795978564758288e-05</v>
+        <v>8.795978564758288E-05</v>
       </c>
       <c r="D68">
         <v>0.06532853192623636</v>
@@ -1931,16 +1931,16 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>-0.001281146087877899</v>
+        <v>-0.001642971781250237</v>
       </c>
       <c r="B72">
-        <v>-0.002834632310259242</v>
+        <v>-0.004442755084587536</v>
       </c>
       <c r="C72">
-        <v>0.0002723401345034438</v>
+        <v>0.001156811522087062</v>
       </c>
       <c r="D72">
-        <v>0.0937162664006962</v>
+        <v>0.2129822538323269</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1953,38 +1953,38 @@
     </row>
     <row r="73">
       <c r="A73">
-        <v>-0.002200075615892504</v>
+        <v>0.0004039086949981101</v>
       </c>
       <c r="B73">
-        <v>-0.004039352833005393</v>
+        <v>-0.0009103649884352131</v>
       </c>
       <c r="C73">
-        <v>-0.0003607983987796155</v>
+        <v>0.001718182378431433</v>
       </c>
       <c r="D73">
-        <v>0.02473746483779222</v>
+        <v>0.5296573652678379</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>GNB</t>
+          <t>GTM</t>
         </is>
       </c>
       <c r="F73">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>0.0004039086949981101</v>
+        <v>-7.525127935976874E-06</v>
       </c>
       <c r="B74">
-        <v>-0.0009103649884352131</v>
+        <v>-0.001068899945686415</v>
       </c>
       <c r="C74">
-        <v>0.001718182378431433</v>
+        <v>0.001053849689814462</v>
       </c>
       <c r="D74">
-        <v>0.5296573652678379</v>
+        <v>0.9883752623209086</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -1992,43 +1992,43 @@
         </is>
       </c>
       <c r="F74">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>-7.525127935976874e-06</v>
+        <v>-0.0006630896118254257</v>
       </c>
       <c r="B75">
-        <v>-0.001068899945686415</v>
+        <v>-0.00308436949547961</v>
       </c>
       <c r="C75">
-        <v>0.001053849689814462</v>
+        <v>0.001758190271828759</v>
       </c>
       <c r="D75">
-        <v>0.9883752623209086</v>
+        <v>0.5509379276752259</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>GTM</t>
+          <t>GUY</t>
         </is>
       </c>
       <c r="F75">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>-0.0006630896118254257</v>
+        <v>-0.001800584567864274</v>
       </c>
       <c r="B76">
-        <v>-0.00308436949547961</v>
+        <v>-0.002777904537620835</v>
       </c>
       <c r="C76">
-        <v>0.001758190271828759</v>
+        <v>-0.0008232645981077129</v>
       </c>
       <c r="D76">
-        <v>0.5509379276752259</v>
+        <v>0.002419763628215478</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2036,43 +2036,43 @@
         </is>
       </c>
       <c r="F76">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>-0.001800584567864274</v>
+        <v>0.003092981835418166</v>
       </c>
       <c r="B77">
-        <v>-0.002777904537620835</v>
+        <v>-0.0003742791150419022</v>
       </c>
       <c r="C77">
-        <v>-0.0008232645981077129</v>
+        <v>0.006560242785878234</v>
       </c>
       <c r="D77">
-        <v>0.002419763628215478</v>
+        <v>0.07817964783948643</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>GUY</t>
+          <t>HND</t>
         </is>
       </c>
       <c r="F77">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>0.003092981835418166</v>
+        <v>-0.0002794176781514101</v>
       </c>
       <c r="B78">
-        <v>-0.0003742791150419022</v>
+        <v>-0.002164716526216838</v>
       </c>
       <c r="C78">
-        <v>0.006560242785878234</v>
+        <v>0.001605881169914018</v>
       </c>
       <c r="D78">
-        <v>0.07817964783948643</v>
+        <v>0.7630600029828778</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2080,21 +2080,21 @@
         </is>
       </c>
       <c r="F78">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>-0.0002794176781514101</v>
+        <v>-0.001099139519055304</v>
       </c>
       <c r="B79">
-        <v>-0.002164716526216838</v>
+        <v>-0.004901196617204568</v>
       </c>
       <c r="C79">
-        <v>0.001605881169914018</v>
+        <v>0.00270291757909396</v>
       </c>
       <c r="D79">
-        <v>0.7630600029828778</v>
+        <v>0.5574910425902421</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2102,21 +2102,21 @@
         </is>
       </c>
       <c r="F79">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>-0.001099139519055304</v>
+        <v>0.002493980478310427</v>
       </c>
       <c r="B80">
-        <v>-0.004901196617204568</v>
+        <v>-0.002338716010107569</v>
       </c>
       <c r="C80">
-        <v>0.00270291757909396</v>
+        <v>0.007326676966728424</v>
       </c>
       <c r="D80">
-        <v>0.5574910425902421</v>
+        <v>0.2985428019022516</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2124,21 +2124,21 @@
         </is>
       </c>
       <c r="F80">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>0.002493980478310427</v>
+        <v>-0.001277995647200745</v>
       </c>
       <c r="B81">
-        <v>-0.002338716010107569</v>
+        <v>-0.007757513654811397</v>
       </c>
       <c r="C81">
-        <v>0.007326676966728424</v>
+        <v>0.005201522360409907</v>
       </c>
       <c r="D81">
-        <v>0.2985428019022516</v>
+        <v>0.6884821400984414</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -2146,47 +2146,47 @@
         </is>
       </c>
       <c r="F81">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>-0.001277995647200745</v>
+        <v>0.0015087671639063</v>
       </c>
       <c r="B82">
-        <v>-0.007757513654811397</v>
+        <v>0.0001490218031452212</v>
       </c>
       <c r="C82">
-        <v>0.005201522360409907</v>
+        <v>0.002868512524667379</v>
       </c>
       <c r="D82">
-        <v>0.6884821400984414</v>
+        <v>0.03330643120449494</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>HND</t>
+          <t>HTI</t>
         </is>
       </c>
       <c r="F82">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>0.0015087671639063</v>
+        <v>-0.0004764628714249808</v>
       </c>
       <c r="B83">
-        <v>0.0001490218031452212</v>
+        <v>-0.001316337720363451</v>
       </c>
       <c r="C83">
-        <v>0.002868512524667379</v>
+        <v>0.0003634119775134896</v>
       </c>
       <c r="D83">
-        <v>0.03330643120449494</v>
+        <v>0.256417972041506</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>HTI</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="F83">
@@ -2195,16 +2195,16 @@
     </row>
     <row r="84">
       <c r="A84">
-        <v>-0.0004764628714249808</v>
+        <v>0.001979841698848153</v>
       </c>
       <c r="B84">
-        <v>-0.001316337720363451</v>
+        <v>0.001531081579876841</v>
       </c>
       <c r="C84">
-        <v>0.0003634119775134896</v>
+        <v>0.002428601817819465</v>
       </c>
       <c r="D84">
-        <v>0.256417972041506</v>
+        <v>2.894404878872058E-10</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -2212,21 +2212,21 @@
         </is>
       </c>
       <c r="F84">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>0.001979841698848153</v>
+        <v>0.002248970035197139</v>
       </c>
       <c r="B85">
-        <v>0.001531081579876841</v>
+        <v>0.00177527074915686</v>
       </c>
       <c r="C85">
-        <v>0.002428601817819465</v>
+        <v>0.002722669321237417</v>
       </c>
       <c r="D85">
-        <v>2.894404878872058e-10</v>
+        <v>5.110516135464913E-11</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -2234,21 +2234,21 @@
         </is>
       </c>
       <c r="F85">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>0.002248970035197139</v>
+        <v>0.001606829275459701</v>
       </c>
       <c r="B86">
-        <v>0.00177527074915686</v>
+        <v>0.001204736224537719</v>
       </c>
       <c r="C86">
-        <v>0.002722669321237417</v>
+        <v>0.002008922326381684</v>
       </c>
       <c r="D86">
-        <v>5.110516135464913e-11</v>
+        <v>2.691882812563596E-09</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -2256,351 +2256,351 @@
         </is>
       </c>
       <c r="F86">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>0.001606829275459701</v>
+        <v>-0.002739802276913916</v>
       </c>
       <c r="B87">
-        <v>0.001204736224537719</v>
+        <v>-0.003006643820115914</v>
       </c>
       <c r="C87">
-        <v>0.002008922326381684</v>
+        <v>-0.002472960733711918</v>
       </c>
       <c r="D87">
-        <v>2.691882812563596e-09</v>
+        <v>2.573821902831655E-21</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F87">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>0.0006794273835628977</v>
+        <v>0.001688445612401264</v>
       </c>
       <c r="B88">
-        <v>-0.000134860856202691</v>
+        <v>0.00142592581097716</v>
       </c>
       <c r="C88">
-        <v>0.001493715623328487</v>
+        <v>0.001950965413825368</v>
       </c>
       <c r="D88">
-        <v>0.09467568594029725</v>
+        <v>5.157986655372504E-15</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>JAM</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F88">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>-0.0006855332850313873</v>
+        <v>0.0008556784985088968</v>
       </c>
       <c r="B89">
-        <v>-0.001071941341623307</v>
+        <v>-0.0002997688378333495</v>
       </c>
       <c r="C89">
-        <v>-0.0002991252284394671</v>
+        <v>0.002011125834851143</v>
       </c>
       <c r="D89">
-        <v>0.0008462558707996296</v>
+        <v>0.1417019751760825</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>-0.0001812205476811385</v>
+        <v>0.001088901510043149</v>
       </c>
       <c r="B90">
-        <v>-0.000584387831218675</v>
+        <v>0.0008087778500429094</v>
       </c>
       <c r="C90">
-        <v>0.0002219467358563979</v>
+        <v>0.001369025170043389</v>
       </c>
       <c r="D90">
-        <v>0.3702959961472108</v>
+        <v>2.808127083016033E-09</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F90">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>-0.000131905059758477</v>
+        <v>-0.001204290717373111</v>
       </c>
       <c r="B91">
-        <v>-0.0005465583937103503</v>
+        <v>-0.002658478568868243</v>
       </c>
       <c r="C91">
-        <v>0.0002827482741933964</v>
+        <v>0.0002498971341220208</v>
       </c>
       <c r="D91">
-        <v>0.525141032471234</v>
+        <v>0.1016201184360917</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F91">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>0.0001632977866954275</v>
+        <v>-0.0006770870788200148</v>
       </c>
       <c r="B92">
-        <v>-0.0002368187762020636</v>
+        <v>-0.0009928618343575258</v>
       </c>
       <c r="C92">
-        <v>0.0005634143495929187</v>
+        <v>-0.0003613123232825038</v>
       </c>
       <c r="D92">
-        <v>0.4155911308528111</v>
+        <v>0.000111172876754634</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F92">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>0.0004462539255967235</v>
+        <v>-0.0003108000916835925</v>
       </c>
       <c r="B93">
-        <v>5.755476316851409e-05</v>
+        <v>-0.0005743673738078648</v>
       </c>
       <c r="C93">
-        <v>0.000834953088024933</v>
+        <v>-4.723280955932016E-05</v>
       </c>
       <c r="D93">
-        <v>0.02537033496240503</v>
+        <v>0.022162386605603</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F93">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>-0.001804821486030709</v>
+        <v>-0.001000289587580569</v>
       </c>
       <c r="B94">
-        <v>-0.00223855761472455</v>
+        <v>-0.001678604251937763</v>
       </c>
       <c r="C94">
-        <v>-0.001371085357336868</v>
+        <v>-0.0003219749232233757</v>
       </c>
       <c r="D94">
-        <v>8.307716045562018e-11</v>
+        <v>0.005030120725674905</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F94">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>0.000149954391632441</v>
+        <v>0.0003624212079087482</v>
       </c>
       <c r="B95">
-        <v>-0.0002437085110133545</v>
+        <v>8.147459714001414E-05</v>
       </c>
       <c r="C95">
-        <v>0.0005436172942782365</v>
+        <v>0.0006433678186774823</v>
       </c>
       <c r="D95">
-        <v>0.4471453112181638</v>
+        <v>0.01295313337304553</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F95">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>0.0001010415023705398</v>
+        <v>-0.001057386150455153</v>
       </c>
       <c r="B96">
-        <v>-0.0003390816201810109</v>
+        <v>-0.002855433253347711</v>
       </c>
       <c r="C96">
-        <v>0.0005411646249220905</v>
+        <v>0.0007406609524374041</v>
       </c>
       <c r="D96">
-        <v>0.6461795760480782</v>
+        <v>0.2405637278506758</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F96">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>-6.077924071807328e-05</v>
+        <v>-0.0008974214985651124</v>
       </c>
       <c r="B97">
-        <v>-0.0004731591302486197</v>
+        <v>-0.002100018780572762</v>
       </c>
       <c r="C97">
-        <v>0.0003516006488124731</v>
+        <v>0.0003051757834425372</v>
       </c>
       <c r="D97">
-        <v>0.7680510970723942</v>
+        <v>0.1387674354652984</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F97">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>-0.0009506081383604452</v>
+        <v>0.0006058386969357523</v>
       </c>
       <c r="B98">
-        <v>-0.001345763345469446</v>
+        <v>-0.0001846501535663484</v>
       </c>
       <c r="C98">
-        <v>-0.0005554529312514439</v>
+        <v>0.001396327547437853</v>
       </c>
       <c r="D98">
-        <v>1.489086931175916e-05</v>
+        <v>0.1287301813363081</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F98">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>0.0002935649315471977</v>
+        <v>-0.0003368622806845247</v>
       </c>
       <c r="B99">
-        <v>-0.0001179791968549184</v>
+        <v>-0.000611084988626791</v>
       </c>
       <c r="C99">
-        <v>0.0007051090599493137</v>
+        <v>-6.263957274225843E-05</v>
       </c>
       <c r="D99">
-        <v>0.1578108988725447</v>
+        <v>0.01751109111892434</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F99">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>-0.0002279255571486687</v>
+        <v>-0.0004902752617089441</v>
       </c>
       <c r="B100">
-        <v>-0.0006433382632449128</v>
+        <v>-0.0007607206137725279</v>
       </c>
       <c r="C100">
-        <v>0.0001874871489475753</v>
+        <v>-0.0002198299096453603</v>
       </c>
       <c r="D100">
-        <v>0.2751543957457425</v>
+        <v>0.0007785711800161127</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="F100">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>0.0004604626440843745</v>
+        <v>0.0006794273835628977</v>
       </c>
       <c r="B101">
-        <v>8.250569436418987e-05</v>
+        <v>-0.000134860856202691</v>
       </c>
       <c r="C101">
-        <v>0.0008384195938045591</v>
+        <v>0.001493715623328487</v>
       </c>
       <c r="D101">
-        <v>0.01804869188506883</v>
+        <v>0.09467568594029725</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>KEN</t>
+          <t>JAM</t>
         </is>
       </c>
       <c r="F101">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>0.000139855987409947</v>
+        <v>-0.0006855332850313873</v>
       </c>
       <c r="B102">
-        <v>-0.0002756613457228704</v>
+        <v>-0.001071941341623307</v>
       </c>
       <c r="C102">
-        <v>0.0005553733205427643</v>
+        <v>-0.0002991252284394671</v>
       </c>
       <c r="D102">
-        <v>0.5014784572241522</v>
+        <v>0.0008462558707996296</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -2608,21 +2608,21 @@
         </is>
       </c>
       <c r="F102">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>-0.0006162646726241847</v>
+        <v>-0.0001812205476811385</v>
       </c>
       <c r="B103">
-        <v>-0.001017456140138016</v>
+        <v>-0.000584387831218675</v>
       </c>
       <c r="C103">
-        <v>-0.0002150732051103533</v>
+        <v>0.0002219467358563979</v>
       </c>
       <c r="D103">
-        <v>0.003373290186291642</v>
+        <v>0.3702959961472108</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -2630,21 +2630,21 @@
         </is>
       </c>
       <c r="F103">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>-0.0001064466969373828</v>
+        <v>-0.000131905059758477</v>
       </c>
       <c r="B104">
-        <v>-0.0005316402888545568</v>
+        <v>-0.0005465583937103503</v>
       </c>
       <c r="C104">
-        <v>0.0003187468949797912</v>
+        <v>0.0002827482741933964</v>
       </c>
       <c r="D104">
-        <v>0.6167184894819635</v>
+        <v>0.525141032471234</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -2652,21 +2652,21 @@
         </is>
       </c>
       <c r="F104">
-        <v>17</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>0.0004741087864457831</v>
+        <v>0.0001632977866954275</v>
       </c>
       <c r="B105">
-        <v>0.0001117160182120724</v>
+        <v>-0.0002368187762020636</v>
       </c>
       <c r="C105">
-        <v>0.0008365015546794938</v>
+        <v>0.0005634143495929187</v>
       </c>
       <c r="D105">
-        <v>0.01147409096044176</v>
+        <v>0.4155911308528111</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -2674,21 +2674,21 @@
         </is>
       </c>
       <c r="F105">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>0.001274403879471529</v>
+        <v>0.0004462539255967235</v>
       </c>
       <c r="B106">
-        <v>0.0008662483124241198</v>
+        <v>5.755476316851409E-05</v>
       </c>
       <c r="C106">
-        <v>0.001682559446518938</v>
+        <v>0.000834953088024933</v>
       </c>
       <c r="D106">
-        <v>1.081484714984392e-07</v>
+        <v>0.02537033496240503</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -2696,21 +2696,21 @@
         </is>
       </c>
       <c r="F106">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>0.0006958682079921373</v>
+        <v>-0.001804821486030709</v>
       </c>
       <c r="B107">
-        <v>0.0003405101453914046</v>
+        <v>-0.00223855761472455</v>
       </c>
       <c r="C107">
-        <v>0.00105122627059287</v>
+        <v>-0.001371085357336868</v>
       </c>
       <c r="D107">
-        <v>0.0002733638025874079</v>
+        <v>8.307716045562018E-11</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -2718,21 +2718,21 @@
         </is>
       </c>
       <c r="F107">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>-0.0008083764108616567</v>
+        <v>0.000149954391632441</v>
       </c>
       <c r="B108">
-        <v>-0.00153745884734032</v>
+        <v>-0.0002437085110133545</v>
       </c>
       <c r="C108">
-        <v>-7.929397438299348e-05</v>
+        <v>0.0005436172942782365</v>
       </c>
       <c r="D108">
-        <v>0.03053972690698204</v>
+        <v>0.4471453112181638</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -2740,21 +2740,21 @@
         </is>
       </c>
       <c r="F108">
-        <v>21</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>0.0002928442414925693</v>
+        <v>0.0001010415023705398</v>
       </c>
       <c r="B109">
-        <v>-0.0001673956533711311</v>
+        <v>-0.0003390816201810109</v>
       </c>
       <c r="C109">
-        <v>0.0007530841363562696</v>
+        <v>0.0005411646249220905</v>
       </c>
       <c r="D109">
-        <v>0.2066919216236535</v>
+        <v>0.6461795760480782</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -2762,21 +2762,21 @@
         </is>
       </c>
       <c r="F109">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>-0.002458003549621974</v>
+        <v>-6.077924071807328E-05</v>
       </c>
       <c r="B110">
-        <v>-0.00282993978804931</v>
+        <v>-0.0004731591302486197</v>
       </c>
       <c r="C110">
-        <v>-0.002086067311194637</v>
+        <v>0.0003516006488124731</v>
       </c>
       <c r="D110">
-        <v>2.240520603957588e-17</v>
+        <v>0.7680510970723942</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -2784,21 +2784,21 @@
         </is>
       </c>
       <c r="F110">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>0.0007264018803552545</v>
+        <v>-0.0009506081383604452</v>
       </c>
       <c r="B111">
-        <v>-4.152830486356374e-05</v>
+        <v>-0.001345763345469446</v>
       </c>
       <c r="C111">
-        <v>0.001494332065574073</v>
+        <v>-0.0005554529312514439</v>
       </c>
       <c r="D111">
-        <v>0.06317073335182463</v>
+        <v>1.489086931175916E-05</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -2806,21 +2806,21 @@
         </is>
       </c>
       <c r="F111">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>-0.001143471448833473</v>
+        <v>0.0002935649315471977</v>
       </c>
       <c r="B112">
-        <v>-0.001505055472659871</v>
+        <v>-0.0001179791968549184</v>
       </c>
       <c r="C112">
-        <v>-0.0007818874250070747</v>
+        <v>0.0007051090599493137</v>
       </c>
       <c r="D112">
-        <v>8.18219719682151e-08</v>
+        <v>0.1578108988725447</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -2828,21 +2828,21 @@
         </is>
       </c>
       <c r="F112">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>-0.0009140656093851763</v>
+        <v>-0.0002279255571486687</v>
       </c>
       <c r="B113">
-        <v>-0.002356294611056891</v>
+        <v>-0.0006433382632449128</v>
       </c>
       <c r="C113">
-        <v>0.0005281633922865381</v>
+        <v>0.0001874871489475753</v>
       </c>
       <c r="D113">
-        <v>0.2084498336518213</v>
+        <v>0.2751543957457425</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -2850,311 +2850,311 @@
         </is>
       </c>
       <c r="F113">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>0.001378663711393237</v>
+        <v>0.0004604626440843745</v>
       </c>
       <c r="B114">
-        <v>-0.0008821503989621597</v>
+        <v>8.250569436418987E-05</v>
       </c>
       <c r="C114">
-        <v>0.003639477821748633</v>
+        <v>0.0008384195938045591</v>
       </c>
       <c r="D114">
-        <v>0.2065833357794522</v>
+        <v>0.01804869188506883</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>KGZ</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F114">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>-0.0008024160230306706</v>
+        <v>0.000139855987409947</v>
       </c>
       <c r="B115">
-        <v>-0.001068930569720182</v>
+        <v>-0.0002756613457228704</v>
       </c>
       <c r="C115">
-        <v>-0.0005359014763411595</v>
+        <v>0.0005553733205427643</v>
       </c>
       <c r="D115">
-        <v>2.018222637077702e-06</v>
+        <v>0.5014784572241522</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F115">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>-0.001326311220501633</v>
+        <v>-0.0006162646726241847</v>
       </c>
       <c r="B116">
-        <v>-0.001599214863832249</v>
+        <v>-0.001017456140138016</v>
       </c>
       <c r="C116">
-        <v>-0.001053407577171016</v>
+        <v>-0.0002150732051103533</v>
       </c>
       <c r="D116">
-        <v>4.631139398744046e-10</v>
+        <v>0.003373290186291642</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F116">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>-0.0007645602401241902</v>
+        <v>-0.0001064466969373828</v>
       </c>
       <c r="B117">
-        <v>-0.001414297681012641</v>
+        <v>-0.0005316402888545568</v>
       </c>
       <c r="C117">
-        <v>-0.0001148227992357392</v>
+        <v>0.0003187468949797912</v>
       </c>
       <c r="D117">
-        <v>0.02301699096154634</v>
+        <v>0.6167184894819635</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F117">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>-0.0007820098804824105</v>
+        <v>0.0004741087864457831</v>
       </c>
       <c r="B118">
-        <v>-0.001070585291154548</v>
+        <v>0.0001117160182120724</v>
       </c>
       <c r="C118">
-        <v>-0.0004934344698102726</v>
+        <v>0.0008365015546794938</v>
       </c>
       <c r="D118">
-        <v>9.343872932178966e-06</v>
+        <v>0.01147409096044176</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F118">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>-0.00136815489129563</v>
+        <v>0.001274403879471529</v>
       </c>
       <c r="B119">
-        <v>-0.001646913950300254</v>
+        <v>0.0008662483124241198</v>
       </c>
       <c r="C119">
-        <v>-0.001089395832291006</v>
+        <v>0.001682559446518938</v>
       </c>
       <c r="D119">
-        <v>3.819835099713584e-10</v>
+        <v>1.081484714984392E-07</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F119">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>-0.001645152045924274</v>
+        <v>0.0006958682079921373</v>
       </c>
       <c r="B120">
-        <v>-0.001972214483968573</v>
+        <v>0.0003405101453914046</v>
       </c>
       <c r="C120">
-        <v>-0.001318089607879975</v>
+        <v>0.00105122627059287</v>
       </c>
       <c r="D120">
-        <v>2.353777817244673e-10</v>
+        <v>0.0002733638025874079</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F120">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>-0.001818529446035691</v>
+        <v>-0.0008083764108616567</v>
       </c>
       <c r="B121">
-        <v>-0.002125800736771723</v>
+        <v>-0.00153745884734032</v>
       </c>
       <c r="C121">
-        <v>-0.001511258155299658</v>
+        <v>-7.929397438299348E-05</v>
       </c>
       <c r="D121">
-        <v>8.648964766332677e-12</v>
+        <v>0.03053972690698204</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>KHM</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F121">
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>-0.0007242492715667863</v>
+        <v>0.0002928442414925693</v>
       </c>
       <c r="B122">
-        <v>-0.002332809621352739</v>
+        <v>-0.0001673956533711311</v>
       </c>
       <c r="C122">
-        <v>0.0008843110782191663</v>
+        <v>0.0007530841363562696</v>
       </c>
       <c r="D122">
-        <v>0.3554543753004147</v>
+        <v>0.2066919216236535</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F122">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>-0.0009077884070622741</v>
+        <v>-0.002458003549621974</v>
       </c>
       <c r="B123">
-        <v>-0.002651986828061092</v>
+        <v>-0.00282993978804931</v>
       </c>
       <c r="C123">
-        <v>0.000836410013936544</v>
+        <v>-0.002086067311194637</v>
       </c>
       <c r="D123">
-        <v>0.2874801650035881</v>
+        <v>2.240520603957588E-17</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>LAO</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F123">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>0.0005764747582588089</v>
+        <v>0.0007264018803552545</v>
       </c>
       <c r="B124">
-        <v>-0.0009935548824157358</v>
+        <v>-4.152830486356374E-05</v>
       </c>
       <c r="C124">
-        <v>0.002146504398933353</v>
+        <v>0.001494332065574073</v>
       </c>
       <c r="D124">
-        <v>0.427679835759626</v>
+        <v>0.06317073335182463</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F124">
-        <v>2</v>
+        <v>24</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>-0.001311778608707989</v>
+        <v>-0.001143471448833473</v>
       </c>
       <c r="B125">
-        <v>-0.002630703670846063</v>
+        <v>-0.001505055472659871</v>
       </c>
       <c r="C125">
-        <v>7.146453430085555e-06</v>
+        <v>-0.0007818874250070747</v>
       </c>
       <c r="D125">
-        <v>0.05101160204441856</v>
+        <v>8.18219719682151E-08</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F125">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>0.001170417224321411</v>
+        <v>-0.0009140656093851763</v>
       </c>
       <c r="B126">
-        <v>-2.928684653307335e-05</v>
+        <v>-0.002356294611056891</v>
       </c>
       <c r="C126">
-        <v>0.002370121295175896</v>
+        <v>0.0005281633922865381</v>
       </c>
       <c r="D126">
-        <v>0.05471823682353939</v>
+        <v>0.2084498336518213</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>LSO</t>
+          <t>KEN</t>
         </is>
       </c>
       <c r="F126">
-        <v>4</v>
+        <v>26</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>-0.0008594436427752961</v>
+        <v>0.001378663711393237</v>
       </c>
       <c r="B127">
-        <v>-0.003401623600890046</v>
+        <v>-0.0008821503989621597</v>
       </c>
       <c r="C127">
-        <v>0.001682736315339454</v>
+        <v>0.003639477821748633</v>
       </c>
       <c r="D127">
-        <v>0.4781245365413781</v>
+        <v>0.2065833357794522</v>
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>MAR</t>
+          <t>KGZ</t>
         </is>
       </c>
       <c r="F127">
@@ -3163,20 +3163,20 @@
     </row>
     <row r="128">
       <c r="A128">
-        <v>-0.004457595837749962</v>
+        <v>-0.0008024160230306706</v>
       </c>
       <c r="B128">
-        <v>-0.01407294446303059</v>
+        <v>-0.001068930569720182</v>
       </c>
       <c r="C128">
-        <v>0.005157752787530666</v>
+        <v>-0.0005359014763411595</v>
       </c>
       <c r="D128">
-        <v>0.3530833039037854</v>
+        <v>2.018222637077702E-06</v>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>MDA</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F128">
@@ -3185,196 +3185,196 @@
     </row>
     <row r="129">
       <c r="A129">
-        <v>-4.771206147462199e-05</v>
+        <v>-0.001326311220501633</v>
       </c>
       <c r="B129">
-        <v>-0.0007226852271712382</v>
+        <v>-0.001599214863832249</v>
       </c>
       <c r="C129">
-        <v>0.0006272611042219942</v>
+        <v>-0.001053407577171016</v>
       </c>
       <c r="D129">
-        <v>0.8629489802716488</v>
+        <v>4.631139398744046E-10</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F129">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130">
       <c r="A130">
-        <v>-0.0001920940743377144</v>
+        <v>-0.0007645602401241902</v>
       </c>
       <c r="B130">
-        <v>-0.0006017388163678682</v>
+        <v>-0.001414297681012641</v>
       </c>
       <c r="C130">
-        <v>0.0002175506676924394</v>
+        <v>-0.0001148227992357392</v>
       </c>
       <c r="D130">
-        <v>0.2819714331494404</v>
+        <v>0.02301699096154634</v>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F130">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>0.0006479332670515692</v>
+        <v>-0.0007820098804824105</v>
       </c>
       <c r="B131">
-        <v>0.0002179917463726272</v>
+        <v>-0.001070585291154548</v>
       </c>
       <c r="C131">
-        <v>0.001077874787730511</v>
+        <v>-0.0004934344698102726</v>
       </c>
       <c r="D131">
-        <v>0.01171352854469388</v>
+        <v>9.343872932178966E-06</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>MDG</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F131">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>0.01040600925002585</v>
+        <v>-0.00136815489129563</v>
       </c>
       <c r="B132">
-        <v>0.00881461684852446</v>
+        <v>-0.001646913950300254</v>
       </c>
       <c r="C132">
-        <v>0.01199740165152724</v>
+        <v>-0.001089395832291006</v>
       </c>
       <c r="D132">
-        <v>1.273409483915112e-07</v>
+        <v>3.819835099713584E-10</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F132">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>0.008487738341547058</v>
+        <v>-0.001645152045924274</v>
       </c>
       <c r="B133">
-        <v>0.006016229283378168</v>
+        <v>-0.001972214483968573</v>
       </c>
       <c r="C133">
-        <v>0.01095924739971595</v>
+        <v>-0.001318089607879975</v>
       </c>
       <c r="D133">
-        <v>2.795783466178055e-05</v>
+        <v>2.353777817244673E-10</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F133">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>0.00928374132012596</v>
+        <v>-0.001818529446035691</v>
       </c>
       <c r="B134">
-        <v>0.00880240677845366</v>
+        <v>-0.002125800736771723</v>
       </c>
       <c r="C134">
-        <v>0.009765075861798261</v>
+        <v>-0.001511258155299658</v>
       </c>
       <c r="D134">
-        <v>8.71569341020299e-12</v>
+        <v>8.648964766332677E-12</v>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>KHM</t>
         </is>
       </c>
       <c r="F134">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>0.01041132990653794</v>
+        <v>-0.0007242492715667863</v>
       </c>
       <c r="B135">
-        <v>0.006386955018919156</v>
+        <v>-0.002332809621352739</v>
       </c>
       <c r="C135">
-        <v>0.01443570479415672</v>
+        <v>0.0008843110782191663</v>
       </c>
       <c r="D135">
-        <v>0.0002430449974910453</v>
+        <v>0.3554543753004147</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F135">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>0.01207912069628144</v>
+        <v>-0.0009077884070622741</v>
       </c>
       <c r="B136">
-        <v>0.01139136004648063</v>
+        <v>-0.002651986828061092</v>
       </c>
       <c r="C136">
-        <v>0.01276688134608225</v>
+        <v>0.000836410013936544</v>
       </c>
       <c r="D136">
-        <v>2.016890692256427e-11</v>
+        <v>0.2874801650035881</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>MLI</t>
+          <t>LAO</t>
         </is>
       </c>
       <c r="F136">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>0.00088246404229739</v>
+        <v>0.0005764747582588089</v>
       </c>
       <c r="B137">
-        <v>-0.0009821031121847318</v>
+        <v>-0.0009935548824157358</v>
       </c>
       <c r="C137">
-        <v>0.002747031196779512</v>
+        <v>0.002146504398933353</v>
       </c>
       <c r="D137">
-        <v>0.3362015456534991</v>
+        <v>0.427679835759626</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>MNG</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="F137">
@@ -3383,878 +3383,878 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>-0.0001405514188631704</v>
+        <v>-0.001311778608707989</v>
       </c>
       <c r="B138">
-        <v>-0.00143577551891074</v>
+        <v>-0.002630703670846063</v>
       </c>
       <c r="C138">
-        <v>0.0011546726811844</v>
+        <v>7.146453430085555E-06</v>
       </c>
       <c r="D138">
-        <v>0.8138314063802303</v>
+        <v>0.05101160204441856</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="F138">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>0.0001497752066749921</v>
+        <v>0.001170417224321411</v>
       </c>
       <c r="B139">
-        <v>-0.001248929036919594</v>
+        <v>-2.928684653307335E-05</v>
       </c>
       <c r="C139">
-        <v>0.001548479450269579</v>
+        <v>0.002370121295175896</v>
       </c>
       <c r="D139">
-        <v>0.816240044457667</v>
+        <v>0.05471823682353939</v>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>LSO</t>
         </is>
       </c>
       <c r="F139">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>0.0001900213529692646</v>
+        <v>-0.0008594436427752961</v>
       </c>
       <c r="B140">
-        <v>-0.001115247728711676</v>
+        <v>-0.003401623600890046</v>
       </c>
       <c r="C140">
-        <v>0.001495290434650205</v>
+        <v>0.001682736315339454</v>
       </c>
       <c r="D140">
-        <v>0.7523388866653178</v>
+        <v>0.4781245365413781</v>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MAR</t>
         </is>
       </c>
       <c r="F140">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>-0.0001311163763048356</v>
+        <v>-0.004457595837749962</v>
       </c>
       <c r="B141">
-        <v>-0.001802414480176709</v>
+        <v>-0.01407294446303059</v>
       </c>
       <c r="C141">
-        <v>0.001540181727567037</v>
+        <v>0.005157752787530666</v>
       </c>
       <c r="D141">
-        <v>0.8647240301974561</v>
+        <v>0.3530833039037854</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MDA</t>
         </is>
       </c>
       <c r="F141">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>0.0006084221044036435</v>
+        <v>-4.771206147462199E-05</v>
       </c>
       <c r="B142">
-        <v>-0.0007250798695161561</v>
+        <v>-0.0007226852271712382</v>
       </c>
       <c r="C142">
-        <v>0.001941924078323443</v>
+        <v>0.0006272611042219942</v>
       </c>
       <c r="D142">
-        <v>0.3333048489505952</v>
+        <v>0.8629489802716488</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F142">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>0.001369924763969591</v>
+        <v>-0.0001920940743377144</v>
       </c>
       <c r="B143">
-        <v>0.0001965952436978522</v>
+        <v>-0.0006017388163678682</v>
       </c>
       <c r="C143">
-        <v>0.002543254284241329</v>
+        <v>0.0002175506676924394</v>
       </c>
       <c r="D143">
-        <v>0.02642472024715031</v>
+        <v>0.2819714331494404</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>MOZ</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F143">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>-0.0007126797353430052</v>
+        <v>0.0006479332670515692</v>
       </c>
       <c r="B144">
-        <v>-0.001388291873246573</v>
+        <v>0.0002179917463726272</v>
       </c>
       <c r="C144">
-        <v>-3.706759743943723e-05</v>
+        <v>0.001077874787730511</v>
       </c>
       <c r="D144">
-        <v>0.04031752470884775</v>
+        <v>0.01171352854469388</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MDG</t>
         </is>
       </c>
       <c r="F144">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>-0.0006735724746299718</v>
+        <v>0.01040600925002585</v>
       </c>
       <c r="B145">
-        <v>-0.0009021444899144702</v>
+        <v>0.00881461684852446</v>
       </c>
       <c r="C145">
-        <v>-0.0004450004593454734</v>
+        <v>0.01199740165152724</v>
       </c>
       <c r="D145">
-        <v>3.300014627804452e-05</v>
+        <v>1.273409483915112E-07</v>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="F145">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>-0.000165796583326732</v>
+        <v>0.008487738341547058</v>
       </c>
       <c r="B146">
-        <v>-0.0005127667825973522</v>
+        <v>0.006016229283378168</v>
       </c>
       <c r="C146">
-        <v>0.0001811736159438883</v>
+        <v>0.01095924739971595</v>
       </c>
       <c r="D146">
-        <v>0.3183394604081564</v>
+        <v>2.795783466178055E-05</v>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="F146">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>-0.0002420224050229512</v>
+        <v>0.00928374132012596</v>
       </c>
       <c r="B147">
-        <v>-0.0004377638850482978</v>
+        <v>0.00880240677845366</v>
       </c>
       <c r="C147">
-        <v>-4.628092499760471e-05</v>
+        <v>0.009765075861798261</v>
       </c>
       <c r="D147">
-        <v>0.01952597963880759</v>
+        <v>8.71569341020299E-12</v>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="F147">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>-0.001107348920855828</v>
+        <v>0.01041132990653794</v>
       </c>
       <c r="B148">
-        <v>-0.001285591941778657</v>
+        <v>0.006386955018919156</v>
       </c>
       <c r="C148">
-        <v>-0.0009291058999329984</v>
+        <v>0.01443570479415672</v>
       </c>
       <c r="D148">
-        <v>1.25013229446055e-08</v>
+        <v>0.0002430449974910453</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="F148">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>-0.001536871238523438</v>
+        <v>0.01207912069628144</v>
       </c>
       <c r="B149">
-        <v>-0.001755156621254957</v>
+        <v>0.01139136004648063</v>
       </c>
       <c r="C149">
-        <v>-0.001318585855791919</v>
+        <v>0.01276688134608225</v>
       </c>
       <c r="D149">
-        <v>3.00632733060943e-09</v>
+        <v>2.016890692256427E-11</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MLI</t>
         </is>
       </c>
       <c r="F149">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>-0.000227883565610074</v>
+        <v>0.00088246404229739</v>
       </c>
       <c r="B150">
-        <v>-0.0005108539627297428</v>
+        <v>-0.0009821031121847318</v>
       </c>
       <c r="C150">
-        <v>5.508683150959494e-05</v>
+        <v>0.002747031196779512</v>
       </c>
       <c r="D150">
-        <v>0.1047921431926653</v>
+        <v>0.3362015456534991</v>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MNG</t>
         </is>
       </c>
       <c r="F150">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>-0.0009112234710100328</v>
+        <v>-0.0001405514188631704</v>
       </c>
       <c r="B151">
-        <v>-0.0011168301543318</v>
+        <v>-0.00143577551891074</v>
       </c>
       <c r="C151">
-        <v>-0.0007056167876882651</v>
+        <v>0.0011546726811844</v>
       </c>
       <c r="D151">
-        <v>5.219362399389524e-07</v>
+        <v>0.8138314063802303</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F151">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>-0.001356683127009924</v>
+        <v>0.0001497752066749921</v>
       </c>
       <c r="B152">
-        <v>-0.001588546243643619</v>
+        <v>-0.001248929036919594</v>
       </c>
       <c r="C152">
-        <v>-0.001124820010376228</v>
+        <v>0.001548479450269579</v>
       </c>
       <c r="D152">
-        <v>2.456875001168092e-08</v>
+        <v>0.816240044457667</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>MRT</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F152">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>-0.0006157789302876018</v>
+        <v>0.0001900213529692646</v>
       </c>
       <c r="B153">
-        <v>-0.001027737959235583</v>
+        <v>-0.001115247728711676</v>
       </c>
       <c r="C153">
-        <v>-0.000203819901339621</v>
+        <v>0.001495290434650205</v>
       </c>
       <c r="D153">
-        <v>0.00487241181555524</v>
+        <v>0.7523388866653178</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F153">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>0.00059919162396419</v>
+        <v>-0.0001311163763048356</v>
       </c>
       <c r="B154">
-        <v>-0.0005609638044673764</v>
+        <v>-0.001802414480176709</v>
       </c>
       <c r="C154">
-        <v>0.001759347052395756</v>
+        <v>0.001540181727567037</v>
       </c>
       <c r="D154">
-        <v>0.2986605964102924</v>
+        <v>0.8647240301974561</v>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F154">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>0.0006957759995956052</v>
+        <v>0.0006084221044036435</v>
       </c>
       <c r="B155">
-        <v>0.000255673973315138</v>
+        <v>-0.0007250798695161561</v>
       </c>
       <c r="C155">
-        <v>0.001135878025876072</v>
+        <v>0.001941924078323443</v>
       </c>
       <c r="D155">
-        <v>0.003134904100871027</v>
+        <v>0.3333048489505952</v>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F155">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>0.0006312751550328166</v>
+        <v>0.001369924763969591</v>
       </c>
       <c r="B156">
-        <v>0.0002299271229543488</v>
+        <v>0.0001965952436978522</v>
       </c>
       <c r="C156">
-        <v>0.001032623187111284</v>
+        <v>0.002543254284241329</v>
       </c>
       <c r="D156">
-        <v>0.003267912761778137</v>
+        <v>0.02642472024715031</v>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MOZ</t>
         </is>
       </c>
       <c r="F156">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>0.0008990544861517925</v>
+        <v>-0.0007126797353430052</v>
       </c>
       <c r="B157">
-        <v>0.0002802989133367848</v>
+        <v>-0.001388291873246573</v>
       </c>
       <c r="C157">
-        <v>0.0015178100589668</v>
+        <v>-3.706759743943723E-05</v>
       </c>
       <c r="D157">
-        <v>0.006014667433228251</v>
+        <v>0.04031752470884775</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F157">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>-0.000645974598232878</v>
+        <v>-0.0006735724746299718</v>
       </c>
       <c r="B158">
-        <v>-0.001071101654712364</v>
+        <v>-0.0009021444899144702</v>
       </c>
       <c r="C158">
-        <v>-0.0002208475417533916</v>
+        <v>-0.0004450004593454734</v>
       </c>
       <c r="D158">
-        <v>0.004296893271004024</v>
+        <v>3.300014627804452E-05</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F158">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>0.001041649341689265</v>
+        <v>-0.000165796583326732</v>
       </c>
       <c r="B159">
-        <v>0.0005454094443063677</v>
+        <v>-0.0005127667825973522</v>
       </c>
       <c r="C159">
-        <v>0.001537889239072162</v>
+        <v>0.0001811736159438883</v>
       </c>
       <c r="D159">
-        <v>0.0001956309697457557</v>
+        <v>0.3183394604081564</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F159">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>0.0008839298191346932</v>
+        <v>-0.0002420224050229512</v>
       </c>
       <c r="B160">
-        <v>0.0003603287199063328</v>
+        <v>-0.0004377638850482978</v>
       </c>
       <c r="C160">
-        <v>0.001407530918363054</v>
+        <v>-4.628092499760471E-05</v>
       </c>
       <c r="D160">
-        <v>0.00179238819228944</v>
+        <v>0.01952597963880759</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F160">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>0.0005026818432084803</v>
+        <v>-0.001107348920855828</v>
       </c>
       <c r="B161">
-        <v>-9.086502653639762e-05</v>
+        <v>-0.001285591941778657</v>
       </c>
       <c r="C161">
-        <v>0.001096228712953358</v>
+        <v>-0.0009291058999329984</v>
       </c>
       <c r="D161">
-        <v>0.09365562080658771</v>
+        <v>1.25013229446055E-08</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>MWI</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F161">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>-0.000118438404718468</v>
+        <v>-0.001536871238523438</v>
       </c>
       <c r="B162">
-        <v>-0.003174951071437652</v>
+        <v>-0.001755156621254957</v>
       </c>
       <c r="C162">
-        <v>0.002938074262000716</v>
+        <v>-0.001318585855791919</v>
       </c>
       <c r="D162">
-        <v>0.9341083529843007</v>
+        <v>3.00632733060943E-09</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F162">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>0.0003991010184276351</v>
+        <v>-0.000227883565610074</v>
       </c>
       <c r="B163">
-        <v>-0.002738539403998927</v>
+        <v>-0.0005108539627297428</v>
       </c>
       <c r="C163">
-        <v>0.003536741440854197</v>
+        <v>5.508683150959494E-05</v>
       </c>
       <c r="D163">
-        <v>0.7863887308849123</v>
+        <v>0.1047921431926653</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>NAM</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F163">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>0.001068046192269722</v>
+        <v>-0.0009112234710100328</v>
       </c>
       <c r="B164">
-        <v>-0.0003428972477221644</v>
+        <v>-0.0011168301543318</v>
       </c>
       <c r="C164">
-        <v>0.002478989632261609</v>
+        <v>-0.0007056167876882651</v>
       </c>
       <c r="D164">
-        <v>0.1190297836862407</v>
+        <v>5.219362399389524E-07</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F164">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>0.002554175074772506</v>
+        <v>-0.001356683127009924</v>
       </c>
       <c r="B165">
-        <v>-0.0005609195133971651</v>
+        <v>-0.001588546243643619</v>
       </c>
       <c r="C165">
-        <v>0.005669269662942178</v>
+        <v>-0.001124820010376228</v>
       </c>
       <c r="D165">
-        <v>0.09531237109508028</v>
+        <v>2.456875001168092E-08</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MRT</t>
         </is>
       </c>
       <c r="F165">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>0.006288056750261196</v>
+        <v>-0.0006157789302876018</v>
       </c>
       <c r="B166">
-        <v>-0.003285532859814718</v>
+        <v>-0.001027737959235583</v>
       </c>
       <c r="C166">
-        <v>0.01586164636033711</v>
+        <v>-0.000203819901339621</v>
       </c>
       <c r="D166">
-        <v>0.1683337256448001</v>
+        <v>0.00487241181555524</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>NER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F166">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>0.0004565264507698636</v>
+        <v>0.00059919162396419</v>
       </c>
       <c r="B167">
-        <v>-0.003081621665047139</v>
+        <v>-0.0005609638044673764</v>
       </c>
       <c r="C167">
-        <v>0.003994674566586866</v>
+        <v>0.001759347052395756</v>
       </c>
       <c r="D167">
-        <v>0.78794462310224</v>
+        <v>0.2986605964102924</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F167">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>-1.461696919490508e-05</v>
+        <v>0.0006957759995956052</v>
       </c>
       <c r="B168">
-        <v>-0.003875025039190396</v>
+        <v>0.000255673973315138</v>
       </c>
       <c r="C168">
-        <v>0.003845791100800585</v>
+        <v>0.001135878025876072</v>
       </c>
       <c r="D168">
-        <v>0.9936948673191601</v>
+        <v>0.003134904100871027</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
-          <t>NIC</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F168">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>-0.002542799517836811</v>
+        <v>0.0006312751550328166</v>
       </c>
       <c r="B169">
-        <v>-0.003708024997360291</v>
+        <v>0.0002299271229543488</v>
       </c>
       <c r="C169">
-        <v>-0.00137757403831333</v>
+        <v>0.001032623187111284</v>
       </c>
       <c r="D169">
-        <v>0.003745956795348086</v>
+        <v>0.003267912761778137</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>NPL</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F169">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>-0.0003964559029871688</v>
+        <v>0.0008990544861517925</v>
       </c>
       <c r="B170">
-        <v>-0.002461333952205431</v>
+        <v>0.0002802989133367848</v>
       </c>
       <c r="C170">
-        <v>0.001668422146231093</v>
+        <v>0.0015178100589668</v>
       </c>
       <c r="D170">
-        <v>0.6550822644945207</v>
+        <v>0.006014667433228251</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
-          <t>PAK</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F170">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>-0.0006603852072783445</v>
+        <v>-0.000645974598232878</v>
       </c>
       <c r="B171">
-        <v>-0.00171077649123981</v>
+        <v>-0.001071101654712364</v>
       </c>
       <c r="C171">
-        <v>0.0003900060766831206</v>
+        <v>-0.0002208475417533916</v>
       </c>
       <c r="D171">
-        <v>0.2072069225081551</v>
+        <v>0.004296893271004024</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F171">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>-0.001081732781886055</v>
+        <v>0.001041649341689265</v>
       </c>
       <c r="B172">
-        <v>-0.003556837986766927</v>
+        <v>0.0005454094443063677</v>
       </c>
       <c r="C172">
-        <v>0.001393372422994817</v>
+        <v>0.001537889239072162</v>
       </c>
       <c r="D172">
-        <v>0.37665015093887</v>
+        <v>0.0001956309697457557</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F172">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>0.0003143070531957537</v>
+        <v>0.0008839298191346932</v>
       </c>
       <c r="B173">
-        <v>-0.0002722739948196246</v>
+        <v>0.0003603287199063328</v>
       </c>
       <c r="C173">
-        <v>0.000900888101211132</v>
+        <v>0.001407530918363054</v>
       </c>
       <c r="D173">
-        <v>0.2894805159434231</v>
+        <v>0.00179238819228944</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F173">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>-0.001372371537401329</v>
+        <v>0.0005026818432084803</v>
       </c>
       <c r="B174">
-        <v>-0.001904471422520692</v>
+        <v>-9.086502653639762E-05</v>
       </c>
       <c r="C174">
-        <v>-0.0008402716522819659</v>
+        <v>0.001096228712953358</v>
       </c>
       <c r="D174">
-        <v>1.959742573524161e-06</v>
+        <v>0.09365562080658771</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>MWI</t>
         </is>
       </c>
       <c r="F174">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>-4.450351407911676e-05</v>
+        <v>-0.000118438404718468</v>
       </c>
       <c r="B175">
-        <v>-0.0007332695947563878</v>
+        <v>-0.003174951071437652</v>
       </c>
       <c r="C175">
-        <v>0.0006442625665981544</v>
+        <v>0.002938074262000716</v>
       </c>
       <c r="D175">
-        <v>0.898008943515874</v>
+        <v>0.9341083529843007</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="F175">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>0.0001725299145533547</v>
+        <v>0.0003991010184276351</v>
       </c>
       <c r="B176">
-        <v>-5.353352011710778e-05</v>
+        <v>-0.002738539403998927</v>
       </c>
       <c r="C176">
-        <v>0.0003985933492238173</v>
+        <v>0.003536741440854197</v>
       </c>
       <c r="D176">
-        <v>0.1327547793817034</v>
+        <v>0.7863887308849123</v>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>NAM</t>
         </is>
       </c>
       <c r="F176">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>0.0004110107513538776</v>
+        <v>0.001068046192269722</v>
       </c>
       <c r="B177">
-        <v>0.0004018412918277327</v>
+        <v>-0.0003428972477221646</v>
       </c>
       <c r="C177">
-        <v>0.0004201802108800224</v>
+        <v>0.002478989632261609</v>
       </c>
       <c r="D177">
-        <v>2.500173762144008e-08</v>
+        <v>0.1190297836862407</v>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="F177">
@@ -4263,20 +4263,20 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>3.381895879516108e-05</v>
+        <v>0.002554175074772506</v>
       </c>
       <c r="B178">
-        <v>-9.165344388739929e-05</v>
+        <v>-0.0005609195133971655</v>
       </c>
       <c r="C178">
-        <v>0.0001592913614777214</v>
+        <v>0.005669269662942178</v>
       </c>
       <c r="D178">
-        <v>0.4958540508646901</v>
+        <v>0.09531237109508028</v>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="F178">
@@ -4285,20 +4285,20 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>0.00119523736387881</v>
+        <v>0.006288056750261196</v>
       </c>
       <c r="B179">
-        <v>0.001094166265578927</v>
+        <v>-0.003285532859814719</v>
       </c>
       <c r="C179">
-        <v>0.001296308462178693</v>
+        <v>0.01586164636033711</v>
       </c>
       <c r="D179">
-        <v>5.131037946989306e-06</v>
+        <v>0.1683337256448001</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NER</t>
         </is>
       </c>
       <c r="F179">
@@ -4307,86 +4307,86 @@
     </row>
     <row r="180">
       <c r="A180">
-        <v>0.001041728268439785</v>
+        <v>0.0004565264507698636</v>
       </c>
       <c r="B180">
-        <v>0.0008839516796762136</v>
+        <v>-0.003081621665047139</v>
       </c>
       <c r="C180">
-        <v>0.001199504857203357</v>
+        <v>0.003994674566586866</v>
       </c>
       <c r="D180">
-        <v>5.209312210045088e-05</v>
+        <v>0.78794462310224</v>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>RWA</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F180">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>0.0003874229568808251</v>
+        <v>-1.461696919490508E-05</v>
       </c>
       <c r="B181">
-        <v>-0.0003809782975163726</v>
+        <v>-0.003875025039190396</v>
       </c>
       <c r="C181">
-        <v>0.001155824211278023</v>
+        <v>0.003845791100800585</v>
       </c>
       <c r="D181">
-        <v>0.3023169194564913</v>
+        <v>0.9936948673191601</v>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>NIC</t>
         </is>
       </c>
       <c r="F181">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>0.002174871702547228</v>
+        <v>-0.002542799517836811</v>
       </c>
       <c r="B182">
-        <v>0.001516223215855905</v>
+        <v>-0.003708024997360291</v>
       </c>
       <c r="C182">
-        <v>0.002833520189238551</v>
+        <v>-0.00137757403831333</v>
       </c>
       <c r="D182">
-        <v>2.273383255313179e-06</v>
+        <v>0.003745956795348086</v>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SDN</t>
+          <t>NPL</t>
         </is>
       </c>
       <c r="F182">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>-0.0003576023041810377</v>
+        <v>-0.0003964559029871688</v>
       </c>
       <c r="B183">
-        <v>-0.000778330116651243</v>
+        <v>-0.002461333952205431</v>
       </c>
       <c r="C183">
-        <v>6.312550828916751e-05</v>
+        <v>0.001668422146231093</v>
       </c>
       <c r="D183">
-        <v>0.08929180832677577</v>
+        <v>0.6550822644945207</v>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>PAK</t>
         </is>
       </c>
       <c r="F183">
@@ -4395,240 +4395,240 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>0.0003650573362027076</v>
+        <v>0.0003143070531957537</v>
       </c>
       <c r="B184">
-        <v>-0.001841007017137678</v>
+        <v>-0.0002722739948196246</v>
       </c>
       <c r="C184">
-        <v>0.002571121689543093</v>
+        <v>0.000900888101211132</v>
       </c>
       <c r="D184">
-        <v>0.7264577606808926</v>
+        <v>0.2894805159434231</v>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F184">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>0.0003826588049434733</v>
+        <v>-0.001372371537401329</v>
       </c>
       <c r="B185">
-        <v>-0.001968562241926279</v>
+        <v>-0.001904471422520692</v>
       </c>
       <c r="C185">
-        <v>0.002733879851813227</v>
+        <v>-0.0008402716522819659</v>
       </c>
       <c r="D185">
-        <v>0.7307733227127757</v>
+        <v>1.959742573524161E-06</v>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SEN</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F185">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>0.001718716214328577</v>
+        <v>-4.450351407911676E-05</v>
       </c>
       <c r="B186">
-        <v>-0.004562157779998442</v>
+        <v>-0.0007332695947563878</v>
       </c>
       <c r="C186">
-        <v>0.007999590208655595</v>
+        <v>0.0006442625665981544</v>
       </c>
       <c r="D186">
-        <v>0.5645449454512208</v>
+        <v>0.898008943515874</v>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SLV</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>-0.006617789996376431</v>
+        <v>0.0001725299145533547</v>
       </c>
       <c r="B187">
-        <v>-0.008718779305007448</v>
+        <v>-5.353352011710778E-05</v>
       </c>
       <c r="C187">
-        <v>-0.004516800687745414</v>
+        <v>0.0003985933492238173</v>
       </c>
       <c r="D187">
-        <v>5.312333712521849e-06</v>
+        <v>0.1327547793817034</v>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>-0.002913652229103257</v>
+        <v>0.0004110107513538776</v>
       </c>
       <c r="B188">
-        <v>-0.004969481594643763</v>
+        <v>0.0004018412918277327</v>
       </c>
       <c r="C188">
-        <v>-0.0008578228635627515</v>
+        <v>0.0004201802108800224</v>
       </c>
       <c r="D188">
-        <v>0.008400884291439044</v>
+        <v>2.500173762144008E-08</v>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="F188">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>-0.000886314803337706</v>
+        <v>3.381895879516108E-05</v>
       </c>
       <c r="B189">
-        <v>-0.00435957011043235</v>
+        <v>-9.165344388739929E-05</v>
       </c>
       <c r="C189">
-        <v>0.002586940503756938</v>
+        <v>0.0001592913614777214</v>
       </c>
       <c r="D189">
-        <v>0.5959848808085256</v>
+        <v>0.4958540508646901</v>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="F189">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>-0.001854392007960905</v>
+        <v>0.00119523736387881</v>
       </c>
       <c r="B190">
-        <v>-0.005434542623553301</v>
+        <v>0.001094166265578927</v>
       </c>
       <c r="C190">
-        <v>0.00172575860763149</v>
+        <v>0.001296308462178693</v>
       </c>
       <c r="D190">
-        <v>0.2884385222362908</v>
+        <v>5.131037946989306E-06</v>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="F190">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>-0.001746991088115343</v>
+        <v>0.001041728268439785</v>
       </c>
       <c r="B191">
-        <v>-0.003988045834591152</v>
+        <v>0.0008839516796762136</v>
       </c>
       <c r="C191">
-        <v>0.0004940636583604672</v>
+        <v>0.001199504857203357</v>
       </c>
       <c r="D191">
-        <v>0.1179074642171522</v>
+        <v>5.209312210045088E-05</v>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>RWA</t>
         </is>
       </c>
       <c r="F191">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>-0.001132685549756167</v>
+        <v>0.0003874229568808251</v>
       </c>
       <c r="B192">
-        <v>-0.003130858374712269</v>
+        <v>-0.0003809782975163726</v>
       </c>
       <c r="C192">
-        <v>0.000865487275199935</v>
+        <v>0.001155824211278023</v>
       </c>
       <c r="D192">
-        <v>0.246968935641615</v>
+        <v>0.3023169194564913</v>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="F192">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>-0.0009917174135433294</v>
+        <v>0.002174871702547228</v>
       </c>
       <c r="B193">
-        <v>-0.004751016386430021</v>
+        <v>0.001516223215855905</v>
       </c>
       <c r="C193">
-        <v>0.002767581559343362</v>
+        <v>0.002833520189238551</v>
       </c>
       <c r="D193">
-        <v>0.5837424865556111</v>
+        <v>2.273383255313179E-06</v>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SOM</t>
+          <t>SDN</t>
         </is>
       </c>
       <c r="F193">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>0.002861614843699388</v>
+        <v>-0.0003576023041810377</v>
       </c>
       <c r="B194">
-        <v>-0.001773121828007959</v>
+        <v>-0.000778330116651243</v>
       </c>
       <c r="C194">
-        <v>0.007496351515406736</v>
+        <v>6.312550828916751E-05</v>
       </c>
       <c r="D194">
-        <v>0.2137172281082916</v>
+        <v>0.08929180832677577</v>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="F194">
@@ -4637,20 +4637,20 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>-0.00434151702276449</v>
+        <v>0.0003650573362027076</v>
       </c>
       <c r="B195">
-        <v>-0.006892827325040577</v>
+        <v>-0.001841007017137678</v>
       </c>
       <c r="C195">
-        <v>-0.001790206720488404</v>
+        <v>0.002571121689543093</v>
       </c>
       <c r="D195">
-        <v>0.001887651279440521</v>
+        <v>0.7264577606808926</v>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="F195">
@@ -4659,20 +4659,20 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>-0.002222796614150635</v>
+        <v>0.0003826588049434733</v>
       </c>
       <c r="B196">
-        <v>-0.006986334147164538</v>
+        <v>-0.001968562241926279</v>
       </c>
       <c r="C196">
-        <v>0.002540740918863267</v>
+        <v>0.002733879851813227</v>
       </c>
       <c r="D196">
-        <v>0.343700368566635</v>
+        <v>0.7307733227127757</v>
       </c>
       <c r="E196" t="inlineStr">
         <is>
-          <t>TCD</t>
+          <t>SEN</t>
         </is>
       </c>
       <c r="F196">
@@ -4681,20 +4681,20 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>-0.001170561830154139</v>
+        <v>0.001718716214328577</v>
       </c>
       <c r="B197">
-        <v>-0.002817932751033404</v>
+        <v>-0.004562157779998442</v>
       </c>
       <c r="C197">
-        <v>0.0004768090907251265</v>
+        <v>0.007999590208655595</v>
       </c>
       <c r="D197">
-        <v>0.1197791695523616</v>
+        <v>0.5645449454512208</v>
       </c>
       <c r="E197" t="inlineStr">
         <is>
-          <t>TGO</t>
+          <t>SLV</t>
         </is>
       </c>
       <c r="F197">
@@ -4703,20 +4703,20 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>0.007762069295997349</v>
+        <v>-0.006617789996376431</v>
       </c>
       <c r="B198">
-        <v>0.006923128381805463</v>
+        <v>-0.008718779305007448</v>
       </c>
       <c r="C198">
-        <v>0.008601010210189235</v>
+        <v>-0.004516800687745414</v>
       </c>
       <c r="D198">
-        <v>9.229902931009501e-30</v>
+        <v>5.312333712521849E-06</v>
       </c>
       <c r="E198" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F198">
@@ -4725,20 +4725,20 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>-0.0007002892069249814</v>
+        <v>-0.002913652229103257</v>
       </c>
       <c r="B199">
-        <v>-0.002404109790133538</v>
+        <v>-0.004969481594643763</v>
       </c>
       <c r="C199">
-        <v>0.001003531376283575</v>
+        <v>-0.0008578228635627515</v>
       </c>
       <c r="D199">
-        <v>0.4155743001775364</v>
+        <v>0.008400884291439044</v>
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F199">
@@ -4747,20 +4747,20 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>0.0004421888340539102</v>
+        <v>-0.000886314803337706</v>
       </c>
       <c r="B200">
-        <v>-0.01841203696346358</v>
+        <v>-0.00435957011043235</v>
       </c>
       <c r="C200">
-        <v>0.01929641463157139</v>
+        <v>0.002586940503756938</v>
       </c>
       <c r="D200">
-        <v>0.9628662732632483</v>
+        <v>0.5959848808085256</v>
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F200">
@@ -4769,20 +4769,20 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>0.0009598275622652131</v>
+        <v>-0.001854392007960905</v>
       </c>
       <c r="B201">
-        <v>-0.002746852214722411</v>
+        <v>-0.005434542623553301</v>
       </c>
       <c r="C201">
-        <v>0.004666507339252838</v>
+        <v>0.00172575860763149</v>
       </c>
       <c r="D201">
-        <v>0.6075370428777174</v>
+        <v>0.2884385222362908</v>
       </c>
       <c r="E201" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F201">
@@ -4791,20 +4791,20 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>-0.001639981789457569</v>
+        <v>-0.001746991088115343</v>
       </c>
       <c r="B202">
-        <v>-0.004734375077385723</v>
+        <v>-0.003988045834591152</v>
       </c>
       <c r="C202">
-        <v>0.001454411498470584</v>
+        <v>0.0004940636583604672</v>
       </c>
       <c r="D202">
-        <v>0.2945149091109407</v>
+        <v>0.1179074642171522</v>
       </c>
       <c r="E202" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F202">
@@ -4813,20 +4813,20 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>-0.000335739808742755</v>
+        <v>-0.001132685549756167</v>
       </c>
       <c r="B203">
-        <v>-0.001603710348999408</v>
+        <v>-0.003130858374712269</v>
       </c>
       <c r="C203">
-        <v>0.0009322307315138977</v>
+        <v>0.000865487275199935</v>
       </c>
       <c r="D203">
-        <v>0.5994760409680302</v>
+        <v>0.246968935641615</v>
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F203">
@@ -4835,20 +4835,20 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>-0.0008314297385904567</v>
+        <v>-0.0009917174135433294</v>
       </c>
       <c r="B204">
-        <v>-0.00400386083099261</v>
+        <v>-0.004751016386430021</v>
       </c>
       <c r="C204">
-        <v>0.002341001353811697</v>
+        <v>0.002767581559343362</v>
       </c>
       <c r="D204">
-        <v>0.6032044427941524</v>
+        <v>0.5837424865556111</v>
       </c>
       <c r="E204" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>SOM</t>
         </is>
       </c>
       <c r="F204">
@@ -4857,104 +4857,104 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>0.0004337682868393014</v>
+        <v>0.002861614843699388</v>
       </c>
       <c r="B205">
-        <v>-0.001154180021037553</v>
+        <v>-0.001773121828007959</v>
       </c>
       <c r="C205">
-        <v>0.002021716594716155</v>
+        <v>0.007496351515406736</v>
       </c>
       <c r="D205">
-        <v>0.5879991580577196</v>
+        <v>0.2137172281082916</v>
       </c>
       <c r="E205" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="F205">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>-0.003220447756592371</v>
+        <v>-0.00434151702276449</v>
       </c>
       <c r="B206">
-        <v>-0.004554444106275957</v>
+        <v>-0.006892827325040577</v>
       </c>
       <c r="C206">
-        <v>-0.001886451406908785</v>
+        <v>-0.001790206720488404</v>
       </c>
       <c r="D206">
-        <v>7.525229412441167e-06</v>
+        <v>0.001887651279440521</v>
       </c>
       <c r="E206" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="F206">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>0.001401995662115646</v>
+        <v>-0.002222796614150635</v>
       </c>
       <c r="B207">
-        <v>-0.002713200065930508</v>
+        <v>-0.006986334147164538</v>
       </c>
       <c r="C207">
-        <v>0.0055171913901618</v>
+        <v>0.002540740918863267</v>
       </c>
       <c r="D207">
-        <v>0.4994916566365953</v>
+        <v>0.343700368566635</v>
       </c>
       <c r="E207" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TCD</t>
         </is>
       </c>
       <c r="F207">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>0.001501077053654307</v>
+        <v>-0.001170561830154139</v>
       </c>
       <c r="B208">
-        <v>-0.003356035084153593</v>
+        <v>-0.002817932751033404</v>
       </c>
       <c r="C208">
-        <v>0.006358189191462208</v>
+        <v>0.0004768090907251265</v>
       </c>
       <c r="D208">
-        <v>0.5400496838509499</v>
+        <v>0.1197791695523616</v>
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>THA</t>
+          <t>TGO</t>
         </is>
       </c>
       <c r="F208">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>0.001478915989446842</v>
+        <v>0.007762069295997349</v>
       </c>
       <c r="B209">
-        <v>0.0003679704503844609</v>
+        <v>0.006923128381805463</v>
       </c>
       <c r="C209">
-        <v>0.002589861528509224</v>
+        <v>0.008601010210189235</v>
       </c>
       <c r="D209">
-        <v>0.009752299152315793</v>
+        <v>9.229902931009501E-30</v>
       </c>
       <c r="E209" t="inlineStr">
         <is>
@@ -4962,21 +4962,21 @@
         </is>
       </c>
       <c r="F209">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>-0.001856893143262445</v>
+        <v>-0.0007002892069249814</v>
       </c>
       <c r="B210">
-        <v>-0.002898860756084364</v>
+        <v>-0.002404109790133538</v>
       </c>
       <c r="C210">
-        <v>-0.0008149255304405268</v>
+        <v>0.001003531376283575</v>
       </c>
       <c r="D210">
-        <v>0.0006662517435539712</v>
+        <v>0.4155743001775364</v>
       </c>
       <c r="E210" t="inlineStr">
         <is>
@@ -4984,21 +4984,21 @@
         </is>
       </c>
       <c r="F210">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>-0.002929617808918805</v>
+        <v>0.0004421888340539102</v>
       </c>
       <c r="B211">
-        <v>-0.004568321321760447</v>
+        <v>-0.01841203696346358</v>
       </c>
       <c r="C211">
-        <v>-0.001290914296077163</v>
+        <v>0.01929641463157139</v>
       </c>
       <c r="D211">
-        <v>0.00064222213127477</v>
+        <v>0.9628662732632483</v>
       </c>
       <c r="E211" t="inlineStr">
         <is>
@@ -5006,21 +5006,21 @@
         </is>
       </c>
       <c r="F211">
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>0.004153207157670181</v>
+        <v>0.0009598275622652131</v>
       </c>
       <c r="B212">
-        <v>0.001190702385439229</v>
+        <v>-0.002746852214722411</v>
       </c>
       <c r="C212">
-        <v>0.007115711929901132</v>
+        <v>0.004666507339252838</v>
       </c>
       <c r="D212">
-        <v>0.00661922570591322</v>
+        <v>0.6075370428777174</v>
       </c>
       <c r="E212" t="inlineStr">
         <is>
@@ -5028,21 +5028,21 @@
         </is>
       </c>
       <c r="F212">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>-0.008000383041590379</v>
+        <v>-0.001639981789457569</v>
       </c>
       <c r="B213">
-        <v>-0.0100519304453341</v>
+        <v>-0.004734375077385723</v>
       </c>
       <c r="C213">
-        <v>-0.005948835637846655</v>
+        <v>0.001454411498470584</v>
       </c>
       <c r="D213">
-        <v>3.072439258935052e-11</v>
+        <v>0.2945149091109407</v>
       </c>
       <c r="E213" t="inlineStr">
         <is>
@@ -5050,597 +5050,597 @@
         </is>
       </c>
       <c r="F213">
-        <v>17</v>
+        <v>6</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>-0.0001539421377066681</v>
+        <v>-0.000335739808742755</v>
       </c>
       <c r="B214">
-        <v>-0.0009842348499933611</v>
+        <v>-0.001603710348999408</v>
       </c>
       <c r="C214">
-        <v>0.0006763505745800249</v>
+        <v>0.0009322307315138977</v>
       </c>
       <c r="D214">
-        <v>0.6338503108149741</v>
+        <v>0.5994760409680302</v>
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F214">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>7.25687954581381e-06</v>
+        <v>-0.0008314297385904567</v>
       </c>
       <c r="B215">
-        <v>-0.0008076210467117346</v>
+        <v>-0.00400386083099261</v>
       </c>
       <c r="C215">
-        <v>0.0008221348058033622</v>
+        <v>0.002341001353811697</v>
       </c>
       <c r="D215">
-        <v>0.9814581780390863</v>
+        <v>0.6032044427941524</v>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>TJK</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F215">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>9.592463595767657e-05</v>
+        <v>0.0004337682868393014</v>
       </c>
       <c r="B216">
-        <v>-0.001292217234707443</v>
+        <v>-0.001154180021037553</v>
       </c>
       <c r="C216">
-        <v>0.001484066506622796</v>
+        <v>0.002021716594716155</v>
       </c>
       <c r="D216">
-        <v>0.8828222345650975</v>
+        <v>0.5879991580577196</v>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>TLS</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F216">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>-0.0005569371406721444</v>
+        <v>-0.003220447756592371</v>
       </c>
       <c r="B217">
-        <v>-0.00141350066867729</v>
+        <v>-0.004554444106275957</v>
       </c>
       <c r="C217">
-        <v>0.0002996263873330012</v>
+        <v>-0.001886451406908785</v>
       </c>
       <c r="D217">
-        <v>0.1939472711127662</v>
+        <v>7.525229412441167E-06</v>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F217">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>0.0001398553612929661</v>
+        <v>0.001401995662115646</v>
       </c>
       <c r="B218">
-        <v>-0.0007069660990380236</v>
+        <v>-0.002713200065930508</v>
       </c>
       <c r="C218">
-        <v>0.0009866768216239559</v>
+        <v>0.0055171913901618</v>
       </c>
       <c r="D218">
-        <v>0.7379646135258791</v>
+        <v>0.4994916566365953</v>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F218">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>0.001266718163952903</v>
+        <v>0.001501077053654307</v>
       </c>
       <c r="B219">
-        <v>0.0006041193941337435</v>
+        <v>-0.003356035084153593</v>
       </c>
       <c r="C219">
-        <v>0.001929316933772062</v>
+        <v>0.006358189191462208</v>
       </c>
       <c r="D219">
-        <v>0.0005106029370233169</v>
+        <v>0.5400496838509499</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F219">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>-0.001523292224206402</v>
+        <v>0.001478915989446842</v>
       </c>
       <c r="B220">
-        <v>-0.002220130321250678</v>
+        <v>0.0003679704503844609</v>
       </c>
       <c r="C220">
-        <v>-0.0008264541271621264</v>
+        <v>0.002589861528509224</v>
       </c>
       <c r="D220">
-        <v>0.0001100392466121343</v>
+        <v>0.009752299152315793</v>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F220">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>0.0005315160256428667</v>
+        <v>-0.001856893143262445</v>
       </c>
       <c r="B221">
-        <v>-0.000554664730101561</v>
+        <v>-0.002898860756084364</v>
       </c>
       <c r="C221">
-        <v>0.001617696781387294</v>
+        <v>-0.0008149255304405268</v>
       </c>
       <c r="D221">
-        <v>0.3251916636912126</v>
+        <v>0.0006662517435539712</v>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F221">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>-0.0003606935334640016</v>
+        <v>-0.002929617808918805</v>
       </c>
       <c r="B222">
-        <v>-0.001090113838633319</v>
+        <v>-0.004568321321760447</v>
       </c>
       <c r="C222">
-        <v>0.0003687267717053157</v>
+        <v>-0.001290914296077163</v>
       </c>
       <c r="D222">
-        <v>0.3202120284477479</v>
+        <v>0.00064222213127477</v>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F222">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>0.001010223502208484</v>
+        <v>0.004153207157670181</v>
       </c>
       <c r="B223">
-        <v>0.0003604716369573692</v>
+        <v>0.001190702385439229</v>
       </c>
       <c r="C223">
-        <v>0.001659975367459598</v>
+        <v>0.007115711929901132</v>
       </c>
       <c r="D223">
-        <v>0.003493175133267117</v>
+        <v>0.00661922570591322</v>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>TZA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F223">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>-0.000214524560924157</v>
+        <v>-0.008000383041590379</v>
       </c>
       <c r="B224">
-        <v>-0.0005593275321818778</v>
+        <v>-0.0100519304453341</v>
       </c>
       <c r="C224">
-        <v>0.0001302784103335638</v>
+        <v>-0.005948835637846655</v>
       </c>
       <c r="D224">
-        <v>0.2178254045043904</v>
+        <v>3.072439258935052E-11</v>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>THA</t>
         </is>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>8.183748007649019e-05</v>
+        <v>-0.0001539421377066681</v>
       </c>
       <c r="B225">
-        <v>-0.0002685140533583432</v>
+        <v>-0.0009842348499933611</v>
       </c>
       <c r="C225">
-        <v>0.0004321890135113235</v>
+        <v>0.0006763505745800249</v>
       </c>
       <c r="D225">
-        <v>0.6416503441055548</v>
+        <v>0.6338503108149741</v>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="F225">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>-0.002807732402518543</v>
+        <v>7.25687954581381E-06</v>
       </c>
       <c r="B226">
-        <v>-0.003283483854410289</v>
+        <v>-0.0008076210467117346</v>
       </c>
       <c r="C226">
-        <v>-0.002331980950626796</v>
+        <v>0.0008221348058033622</v>
       </c>
       <c r="D226">
-        <v>7.523571032208023e-17</v>
+        <v>0.9814581780390863</v>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TJK</t>
         </is>
       </c>
       <c r="F226">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>0.002009787749869753</v>
+        <v>9.592463595767657E-05</v>
       </c>
       <c r="B227">
-        <v>0.001651691203248467</v>
+        <v>-0.001292217234707443</v>
       </c>
       <c r="C227">
-        <v>0.002367884296491039</v>
+        <v>0.001484066506622796</v>
       </c>
       <c r="D227">
-        <v>5.526868642647025e-16</v>
+        <v>0.8828222345650975</v>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TLS</t>
         </is>
       </c>
       <c r="F227">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>0.001610065840328184</v>
+        <v>-0.0005569371406721444</v>
       </c>
       <c r="B228">
-        <v>0.001145462407359999</v>
+        <v>-0.00141350066867729</v>
       </c>
       <c r="C228">
-        <v>0.002074669273296369</v>
+        <v>0.0002996263873330012</v>
       </c>
       <c r="D228">
-        <v>4.312615723094331e-09</v>
+        <v>0.1939472711127662</v>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>UGA</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="F228">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>-0.0008115453003969664</v>
+        <v>0.0001398553612929661</v>
       </c>
       <c r="B229">
-        <v>-0.002463106486810405</v>
+        <v>-0.0007069660990380236</v>
       </c>
       <c r="C229">
-        <v>0.0008400158860164721</v>
+        <v>0.0009866768216239559</v>
       </c>
       <c r="D229">
-        <v>0.3077579273238932</v>
+        <v>0.7379646135258791</v>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>UZB</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="F229">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>0.0003697585221406076</v>
+        <v>0.001266718163952903</v>
       </c>
       <c r="B230">
-        <v>0.0001551400670788229</v>
+        <v>0.0006041193941337435</v>
       </c>
       <c r="C230">
-        <v>0.0005843769772023923</v>
+        <v>0.001929316933772062</v>
       </c>
       <c r="D230">
-        <v>0.004102057067208374</v>
+        <v>0.0005106029370233169</v>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="F230">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>4.833715435803638e-05</v>
+        <v>-0.001523292224206402</v>
       </c>
       <c r="B231">
-        <v>-0.000115725896423019</v>
+        <v>-0.002220130321250678</v>
       </c>
       <c r="C231">
-        <v>0.0002124002051390918</v>
+        <v>-0.0008264541271621264</v>
       </c>
       <c r="D231">
-        <v>0.516051791175159</v>
+        <v>0.0001100392466121343</v>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="F231">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>0.0001211310252099043</v>
+        <v>0.0005315160256428667</v>
       </c>
       <c r="B232">
-        <v>-4.13974224375101e-05</v>
+        <v>-0.000554664730101561</v>
       </c>
       <c r="C232">
-        <v>0.0002836594728573186</v>
+        <v>0.001617696781387294</v>
       </c>
       <c r="D232">
-        <v>0.1240002303520023</v>
+        <v>0.3251916636912126</v>
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="F232">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>-0.001260374003331872</v>
+        <v>-0.0003606935334640016</v>
       </c>
       <c r="B233">
-        <v>-0.001469374213119797</v>
+        <v>-0.001090113838633319</v>
       </c>
       <c r="C233">
-        <v>-0.001051373793543948</v>
+        <v>0.0003687267717053157</v>
       </c>
       <c r="D233">
-        <v>6.920204706119272e-07</v>
+        <v>0.3202120284477479</v>
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="F233">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>-0.0003961771584864719</v>
+        <v>0.001010223502208484</v>
       </c>
       <c r="B234">
-        <v>-0.0005721650379007594</v>
+        <v>0.0003604716369573692</v>
       </c>
       <c r="C234">
-        <v>-0.0002201892790721844</v>
+        <v>0.001659975367459598</v>
       </c>
       <c r="D234">
-        <v>0.0008313022136537764</v>
+        <v>0.003493175133267117</v>
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>TZA</t>
         </is>
       </c>
       <c r="F234">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>1.257002779229237e-05</v>
+        <v>-0.000214524560924157</v>
       </c>
       <c r="B235">
-        <v>-0.0001477383123697624</v>
+        <v>-0.0005593275321818778</v>
       </c>
       <c r="C235">
-        <v>0.0001728783679543472</v>
+        <v>0.0001302784103335638</v>
       </c>
       <c r="D235">
-        <v>0.8610077225202979</v>
+        <v>0.2178254045043904</v>
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F235">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>0.0008277669069140359</v>
+        <v>8.183748007649019E-05</v>
       </c>
       <c r="B236">
-        <v>0.000476016832290973</v>
+        <v>-0.0002685140533583432</v>
       </c>
       <c r="C236">
-        <v>0.001179516981537099</v>
+        <v>0.0004321890135113235</v>
       </c>
       <c r="D236">
-        <v>0.0004787740386101373</v>
+        <v>0.6416503441055548</v>
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F236">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>0.001262997546408396</v>
+        <v>-0.002807732402518543</v>
       </c>
       <c r="B237">
-        <v>0.000925411920901769</v>
+        <v>-0.003283483854410289</v>
       </c>
       <c r="C237">
-        <v>0.001600583171915022</v>
+        <v>-0.002331980950626796</v>
       </c>
       <c r="D237">
-        <v>1.407786631496718e-05</v>
+        <v>7.523571032208023E-17</v>
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F237">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>0.0009166369352418277</v>
+        <v>0.002009787749869753</v>
       </c>
       <c r="B238">
-        <v>0.0006159103667035244</v>
+        <v>0.001651691203248467</v>
       </c>
       <c r="C238">
-        <v>0.001217363503780131</v>
+        <v>0.002367884296491039</v>
       </c>
       <c r="D238">
-        <v>7.104721744942428e-05</v>
+        <v>5.526868642647025E-16</v>
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F238">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>0.0004205213981284019</v>
+        <v>0.001610065840328184</v>
       </c>
       <c r="B239">
-        <v>7.40831168700976e-05</v>
+        <v>0.001145462407359999</v>
       </c>
       <c r="C239">
-        <v>0.0007669596793867062</v>
+        <v>0.002074669273296369</v>
       </c>
       <c r="D239">
-        <v>0.02262801541390062</v>
+        <v>4.312615723094331E-09</v>
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>ZMB</t>
+          <t>UGA</t>
         </is>
       </c>
       <c r="F239">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>0.0007517728197402316</v>
+        <v>-0.0008115453003969664</v>
       </c>
       <c r="B240">
-        <v>0.0005113395374297613</v>
+        <v>-0.002463106486810405</v>
       </c>
       <c r="C240">
-        <v>0.0009922061020507019</v>
+        <v>0.0008400158860164721</v>
       </c>
       <c r="D240">
-        <v>5.835656156538021e-05</v>
+        <v>0.3077579273238932</v>
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>UZB</t>
         </is>
       </c>
       <c r="F240">
@@ -5649,89 +5649,331 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>-0.0007810752027432135</v>
+        <v>0.0003697585221406076</v>
       </c>
       <c r="B241">
-        <v>-0.001133654552051941</v>
+        <v>0.0001551400670788229</v>
       </c>
       <c r="C241">
-        <v>-0.0004284958534344862</v>
+        <v>0.0005843769772023924</v>
       </c>
       <c r="D241">
-        <v>0.0007275693047291593</v>
+        <v>0.004102057067208374</v>
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="F241">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>-0.0004491562633727875</v>
+        <v>4.833715435803638E-05</v>
       </c>
       <c r="B242">
-        <v>-0.001060624213531577</v>
+        <v>-0.000115725896423019</v>
       </c>
       <c r="C242">
-        <v>0.000162311686786002</v>
+        <v>0.0002124002051390918</v>
       </c>
       <c r="D242">
-        <v>0.1309434399643722</v>
+        <v>0.516051791175159</v>
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="F242">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>-0.0004840749546126019</v>
+        <v>0.0001211310252099043</v>
       </c>
       <c r="B243">
-        <v>-0.0007988932582211365</v>
+        <v>-4.139742243751013E-05</v>
       </c>
       <c r="C243">
-        <v>-0.0001692566510040673</v>
+        <v>0.0002836594728573186</v>
       </c>
       <c r="D243">
-        <v>0.006956430073508101</v>
+        <v>0.1240002303520023</v>
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>ZWE</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="F243">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
+        <v>-0.001260374003331872</v>
+      </c>
+      <c r="B244">
+        <v>-0.001469374213119797</v>
+      </c>
+      <c r="C244">
+        <v>-0.001051373793543948</v>
+      </c>
+      <c r="D244">
+        <v>6.920204706119272E-07</v>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F244">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245">
+        <v>-0.0003961771584864719</v>
+      </c>
+      <c r="B245">
+        <v>-0.0005721650379007594</v>
+      </c>
+      <c r="C245">
+        <v>-0.0002201892790721844</v>
+      </c>
+      <c r="D245">
+        <v>0.0008313022136537764</v>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F245">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246">
+        <v>1.257002779229237E-05</v>
+      </c>
+      <c r="B246">
+        <v>-0.0001477383123697625</v>
+      </c>
+      <c r="C246">
+        <v>0.0001728783679543472</v>
+      </c>
+      <c r="D246">
+        <v>0.8610077225202979</v>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>ZAF</t>
+        </is>
+      </c>
+      <c r="F246">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247">
+        <v>0.0008277669069140359</v>
+      </c>
+      <c r="B247">
+        <v>0.000476016832290973</v>
+      </c>
+      <c r="C247">
+        <v>0.001179516981537099</v>
+      </c>
+      <c r="D247">
+        <v>0.0004787740386101373</v>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F247">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248">
+        <v>0.001262997546408396</v>
+      </c>
+      <c r="B248">
+        <v>0.000925411920901769</v>
+      </c>
+      <c r="C248">
+        <v>0.001600583171915022</v>
+      </c>
+      <c r="D248">
+        <v>1.407786631496718E-05</v>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F248">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249">
+        <v>0.0009166369352418277</v>
+      </c>
+      <c r="B249">
+        <v>0.0006159103667035244</v>
+      </c>
+      <c r="C249">
+        <v>0.001217363503780131</v>
+      </c>
+      <c r="D249">
+        <v>7.104721744942428E-05</v>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F249">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250">
+        <v>0.0004205213981284019</v>
+      </c>
+      <c r="B250">
+        <v>7.40831168700976E-05</v>
+      </c>
+      <c r="C250">
+        <v>0.0007669596793867062</v>
+      </c>
+      <c r="D250">
+        <v>0.02262801541390062</v>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>ZMB</t>
+        </is>
+      </c>
+      <c r="F250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251">
+        <v>0.0007517728197402316</v>
+      </c>
+      <c r="B251">
+        <v>0.0005113395374297613</v>
+      </c>
+      <c r="C251">
+        <v>0.0009922061020507019</v>
+      </c>
+      <c r="D251">
+        <v>5.835656156538021E-05</v>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F251">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252">
+        <v>-0.0007810752027432135</v>
+      </c>
+      <c r="B252">
+        <v>-0.001133654552051941</v>
+      </c>
+      <c r="C252">
+        <v>-0.0004284958534344862</v>
+      </c>
+      <c r="D252">
+        <v>0.0007275693047291593</v>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F252">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253">
+        <v>-0.0004491562633727875</v>
+      </c>
+      <c r="B253">
+        <v>-0.001060624213531577</v>
+      </c>
+      <c r="C253">
+        <v>0.000162311686786002</v>
+      </c>
+      <c r="D253">
+        <v>0.1309434399643722</v>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F253">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254">
+        <v>-0.0004840749546126019</v>
+      </c>
+      <c r="B254">
+        <v>-0.0007988932582211365</v>
+      </c>
+      <c r="C254">
+        <v>-0.0001692566510040673</v>
+      </c>
+      <c r="D254">
+        <v>0.006956430073508101</v>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>ZWE</t>
+        </is>
+      </c>
+      <c r="F254">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255">
         <v>-0.000244996590666663</v>
       </c>
-      <c r="B244">
+      <c r="B255">
         <v>-0.0005034832837829263</v>
       </c>
-      <c r="C244">
-        <v>1.34901024496003e-05</v>
-      </c>
-      <c r="D244">
+      <c r="C255">
+        <v>1.34901024496003E-05</v>
+      </c>
+      <c r="D255">
         <v>0.06061588333768897</v>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="E255" t="inlineStr">
         <is>
           <t>ZWE</t>
         </is>
       </c>
-      <c r="F244">
+      <c r="F255">
         <v>6</v>
       </c>
     </row>
